--- a/reports/model_metrics.xlsx
+++ b/reports/model_metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enigma/hse/cost-prediction-repo/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enigma/hse/my_project/cost-prediction-repo/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E516A70-AD55-A84F-9FC7-F9E03367C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708FEAF-5F59-F449-B194-5C1DEB1350F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{25EFF1AE-8C56-B244-B452-00509AD74066}"/>
   </bookViews>
